--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H2">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I2">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J2">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N2">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O2">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P2">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q2">
-        <v>29.42890109327566</v>
+        <v>185.926985389992</v>
       </c>
       <c r="R2">
-        <v>264.860109839481</v>
+        <v>1673.342868509928</v>
       </c>
       <c r="S2">
-        <v>0.004020482965328267</v>
+        <v>0.01618230222006825</v>
       </c>
       <c r="T2">
-        <v>0.004020482965328268</v>
+        <v>0.01618230222006825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H3">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I3">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J3">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>45.42519</v>
       </c>
       <c r="O3">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P3">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q3">
-        <v>4.81254147109</v>
+        <v>15.66637580277</v>
       </c>
       <c r="R3">
-        <v>43.31287323981</v>
+        <v>140.99738222493</v>
       </c>
       <c r="S3">
-        <v>0.0006574741252868005</v>
+        <v>0.001363535408277721</v>
       </c>
       <c r="T3">
-        <v>0.0006574741252868005</v>
+        <v>0.001363535408277721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H4">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I4">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J4">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N4">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O4">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P4">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q4">
-        <v>10.64830030583933</v>
+        <v>37.402020918339</v>
       </c>
       <c r="R4">
-        <v>95.83470275255401</v>
+        <v>336.618188265051</v>
       </c>
       <c r="S4">
-        <v>0.001454736955812086</v>
+        <v>0.003255314471281992</v>
       </c>
       <c r="T4">
-        <v>0.001454736955812086</v>
+        <v>0.003255314471281992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H5">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I5">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J5">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N5">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O5">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P5">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q5">
-        <v>8.955938744735333</v>
+        <v>26.135228221872</v>
       </c>
       <c r="R5">
-        <v>80.603448702618</v>
+        <v>235.217053996848</v>
       </c>
       <c r="S5">
-        <v>0.001223531896335717</v>
+        <v>0.002274700258220585</v>
       </c>
       <c r="T5">
-        <v>0.001223531896335717</v>
+        <v>0.002274700258220585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>122.959687</v>
       </c>
       <c r="I6">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J6">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N6">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O6">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P6">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q6">
-        <v>3795.041701337006</v>
+        <v>7365.30743869241</v>
       </c>
       <c r="R6">
-        <v>34155.37531203305</v>
+        <v>66287.76694823169</v>
       </c>
       <c r="S6">
-        <v>0.5184665395617568</v>
+        <v>0.6410453580293084</v>
       </c>
       <c r="T6">
-        <v>0.5184665395617569</v>
+        <v>0.6410453580293083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>122.959687</v>
       </c>
       <c r="I7">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J7">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>45.42519</v>
       </c>
       <c r="O7">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P7">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q7">
         <v>620.6074604795033</v>
@@ -883,10 +883,10 @@
         <v>5585.46714431553</v>
       </c>
       <c r="S7">
-        <v>0.08478541944549892</v>
+        <v>0.05401506115125218</v>
       </c>
       <c r="T7">
-        <v>0.08478541944549893</v>
+        <v>0.05401506115125218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>122.959687</v>
       </c>
       <c r="I8">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J8">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N8">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O8">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P8">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q8">
-        <v>1373.165229001823</v>
+        <v>1481.642819702275</v>
       </c>
       <c r="R8">
-        <v>12358.4870610164</v>
+        <v>13334.78537732047</v>
       </c>
       <c r="S8">
-        <v>0.18759747074091</v>
+        <v>0.1289559546201673</v>
       </c>
       <c r="T8">
-        <v>0.18759747074091</v>
+        <v>0.1289559546201673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>122.959687</v>
       </c>
       <c r="I9">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J9">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N9">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O9">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P9">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q9">
-        <v>1154.92457238427</v>
+        <v>1035.320345945001</v>
       </c>
       <c r="R9">
-        <v>10394.32115145843</v>
+        <v>9317.883113505008</v>
       </c>
       <c r="S9">
-        <v>0.1577821256319684</v>
+        <v>0.09010992512746586</v>
       </c>
       <c r="T9">
-        <v>0.1577821256319684</v>
+        <v>0.09010992512746586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H10">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I10">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J10">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N10">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O10">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P10">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q10">
-        <v>174.2768078947884</v>
+        <v>498.7314780882036</v>
       </c>
       <c r="R10">
-        <v>1568.491271053096</v>
+        <v>4488.583302793832</v>
       </c>
       <c r="S10">
-        <v>0.02380914377917035</v>
+        <v>0.04340748863407905</v>
       </c>
       <c r="T10">
-        <v>0.02380914377917035</v>
+        <v>0.04340748863407905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H11">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I11">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J11">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>45.42519</v>
       </c>
       <c r="O11">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P11">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q11">
-        <v>28.49968345010667</v>
+        <v>42.02356502479667</v>
       </c>
       <c r="R11">
-        <v>256.49715105096</v>
+        <v>378.21208522317</v>
       </c>
       <c r="S11">
-        <v>0.003893536203245565</v>
+        <v>0.003657554217692138</v>
       </c>
       <c r="T11">
-        <v>0.003893536203245565</v>
+        <v>0.003657554217692138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H12">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I12">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J12">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N12">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O12">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P12">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q12">
-        <v>63.05882033871823</v>
+        <v>100.3273684934021</v>
       </c>
       <c r="R12">
-        <v>567.5293830484641</v>
+        <v>902.9463164406191</v>
       </c>
       <c r="S12">
-        <v>0.008614895683054975</v>
+        <v>0.008732071864118857</v>
       </c>
       <c r="T12">
-        <v>0.008614895683054973</v>
+        <v>0.008732071864118857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H13">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I13">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J13">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N13">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O13">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P13">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q13">
-        <v>53.03672098345422</v>
+        <v>70.10526725814579</v>
       </c>
       <c r="R13">
-        <v>477.330488851088</v>
+        <v>630.9474053233121</v>
       </c>
       <c r="S13">
-        <v>0.00724570831153354</v>
+        <v>0.006101667380936497</v>
       </c>
       <c r="T13">
-        <v>0.007245708311533539</v>
+        <v>0.006101667380936497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H14">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I14">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J14">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N14">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O14">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P14">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q14">
-        <v>1.795982748401111</v>
+        <v>7.243968421868445</v>
       </c>
       <c r="R14">
-        <v>16.16384473561</v>
+        <v>65.195715796816</v>
       </c>
       <c r="S14">
-        <v>0.0002453614568577963</v>
+        <v>0.0006304845207349656</v>
       </c>
       <c r="T14">
-        <v>0.0002453614568577963</v>
+        <v>0.0006304845207349655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H15">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I15">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J15">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>45.42519</v>
       </c>
       <c r="O15">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P15">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q15">
-        <v>0.2936990895666667</v>
+        <v>0.6103833252733333</v>
       </c>
       <c r="R15">
-        <v>2.6432918061</v>
+        <v>5.49344992746</v>
       </c>
       <c r="S15">
-        <v>4.012423647055626E-05</v>
+        <v>5.312519545747974E-05</v>
       </c>
       <c r="T15">
-        <v>4.012423647055626E-05</v>
+        <v>5.312519545747974E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H16">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I16">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J16">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N16">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O16">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P16">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q16">
-        <v>0.6498429414155557</v>
+        <v>1.457233644046889</v>
       </c>
       <c r="R16">
-        <v>5.84858647274</v>
+        <v>13.115102796422</v>
       </c>
       <c r="S16">
-        <v>8.877947796348534E-05</v>
+        <v>0.0001268314827121779</v>
       </c>
       <c r="T16">
-        <v>8.877947796348533E-05</v>
+        <v>0.0001268314827121779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H17">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I17">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J17">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N17">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O17">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P17">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q17">
-        <v>0.5465617431755555</v>
+        <v>1.018264065006222</v>
       </c>
       <c r="R17">
-        <v>4.919055688579999</v>
+        <v>9.164376585055999</v>
       </c>
       <c r="S17">
-        <v>7.466952880682137E-05</v>
+        <v>8.862541822642211E-05</v>
       </c>
       <c r="T17">
-        <v>7.466952880682137E-05</v>
+        <v>8.862541822642211E-05</v>
       </c>
     </row>
   </sheetData>
